--- a/Dashboard/comandas.xlsx
+++ b/Dashboard/comandas.xlsx
@@ -201,8 +201,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tb5" displayName="Tb5" ref="P1:Q13" headerRowCount="1">
-  <autoFilter ref="P1:Q13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tb5" displayName="Tb5" ref="P1:Q14" headerRowCount="1">
+  <autoFilter ref="P1:Q14"/>
   <tableColumns count="2">
     <tableColumn id="16" name="index"/>
     <tableColumn id="17" name="Qtd"/>
@@ -499,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3821,6 +3821,78 @@
       <c r="O46" t="inlineStr">
         <is>
           <t>9/1/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>26</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Felipe Nunes Soares</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DuBom</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>20</v>
+      </c>
+      <c r="F47" t="n">
+        <v>700</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Acácias</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Farinha láctea']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['Oreo']</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['Calda de morango']</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>['Leite condensado']</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>['Manga']</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1/2/2022</t>
         </is>
       </c>
     </row>
@@ -3971,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -4019,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H4" t="n">
         <v>11</v>
@@ -4082,7 +4154,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Dinheiro</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -4124,11 +4196,11 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Dinheiro</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -4180,7 +4252,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -4354,6 +4426,14 @@
       <c r="K14" t="n">
         <v>0</v>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1/2/2022</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="D15" t="inlineStr">
@@ -4456,7 +4536,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Acácias</t>
+          <t>Maria Lúcia</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -4474,11 +4554,11 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Maria Lúcia</t>
+          <t>Acácias</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -4506,7 +4586,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
